--- a/application/views/rpt/xlsx/RUS_schet.xlsx
+++ b/application/views/rpt/xlsx/RUS_schet.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\acchub\tpl\rpt\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Счет на оплату'!$A$1:$V$34</definedName>
     <definedName name="Сегодня">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -100,21 +95,6 @@
     <t>(подпись)</t>
   </si>
   <si>
-    <t>{$v[entries][loop][product_name]}&lt;merge9&gt;</t>
-  </si>
-  <si>
-    <t>{$v[entries][loop][product_unit]}&lt;merge2&gt;</t>
-  </si>
-  <si>
-    <t>{$v[entries][loop][product_quantity]}&lt;merge3&gt;</t>
-  </si>
-  <si>
-    <t>{$v[entries][loop][product_price]}&lt;merge3&gt;</t>
-  </si>
-  <si>
-    <t>{$v[entries][loop][product_sum]}&lt;merge4&gt;</t>
-  </si>
-  <si>
     <t>ИНН {$v[a][company_vat_id]}, КПП {$v[a][company_vat_licence_id]}, {$v[a][company_name]}, {$v[a][company_jaddress]}, {$v[a][company_phone]}</t>
   </si>
   <si>
@@ -151,6 +131,21 @@
   <si>
     <t>Банк получателя
 {$v[a][company_bank_name]}</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_name]}</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_unit]}</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_quantity]}</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_price]}</t>
+  </si>
+  <si>
+    <t>{$v[entries][loop][product_sum]}</t>
   </si>
 </sst>
 </file>
@@ -382,133 +377,133 @@
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="12" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -571,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,7 +601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,7 +813,7 @@
   <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -832,66 +827,66 @@
   <sheetData>
     <row r="1" spans="1:22" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="36" t="s">
+      <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
     </row>
     <row r="3" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
+      <c r="A3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -903,276 +898,276 @@
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
+      <c r="A6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
     </row>
     <row r="7" spans="1:22" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="D8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
     </row>
     <row r="9" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
     </row>
     <row r="10" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="D12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
     </row>
     <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="24" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="24" t="s">
+      <c r="L15" s="23"/>
+      <c r="M15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="24" t="s">
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="27" t="s">
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
     </row>
     <row r="16" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1182,255 +1177,283 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22" t="s">
+      <c r="K16" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+    </row>
+    <row r="17" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+    </row>
+    <row r="18" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+    </row>
+    <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+    </row>
+    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+    </row>
+    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-    </row>
-    <row r="17" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-    </row>
-    <row r="18" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-    </row>
-    <row r="19" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-    </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-    </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="29">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="8">
         <f>MAX(A16:A551)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
+      <c r="G22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
     </row>
     <row r="23" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
     </row>
     <row r="24" spans="1:22" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="31" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
     </row>
     <row r="26" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="J26" s="11" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="J26" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
     </row>
     <row r="28" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="J28" s="2" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="J28" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="R28" s="2" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="R28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
     </row>
     <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="A21:V21"/>
+    <mergeCell ref="A23:V23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:V6"/>
+    <mergeCell ref="D8:V10"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:V4"/>
+    <mergeCell ref="D12:V14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="J26:P27"/>
+    <mergeCell ref="J28:P28"/>
     <mergeCell ref="L25:Q25"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="E25:H25"/>
@@ -1442,39 +1465,11 @@
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="G22:V22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C26:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="J26:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:V6"/>
-    <mergeCell ref="D8:V10"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:V4"/>
     <mergeCell ref="A3:K3"/>
-    <mergeCell ref="D12:V14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="P16:R16"/>
     <mergeCell ref="S16:V16"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="S17:V17"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="A21:V21"/>
-    <mergeCell ref="A23:V23"/>
-    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
